--- a/encodingTimeLargeSelectivity.xlsx
+++ b/encodingTimeLargeSelectivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABFA991-4228-45A3-A64C-E75D377222F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97292CBC-3E82-467B-8B40-E1DDDDFCC87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CA29E1DE-8DC2-4FE7-BE8B-34A7447EF42D}"/>
   </bookViews>
@@ -24774,8 +24774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12E56B1-5D4E-4E21-BDD2-E2B59C9023A3}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
